--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.55160266666667</v>
+        <v>0.5407596666666666</v>
       </c>
       <c r="H2">
-        <v>37.654808</v>
+        <v>1.622279</v>
       </c>
       <c r="I2">
-        <v>0.5004834597846365</v>
+        <v>0.03618231591230665</v>
       </c>
       <c r="J2">
-        <v>0.5004834597846365</v>
+        <v>0.03618231591230665</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4237746666666666</v>
+        <v>0.042039</v>
       </c>
       <c r="N2">
-        <v>1.271324</v>
+        <v>0.126117</v>
       </c>
       <c r="O2">
-        <v>0.9097514671460191</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9097514671460191</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>5.319051236199111</v>
+        <v>0.022732995627</v>
       </c>
       <c r="R2">
-        <v>47.871461125792</v>
+        <v>0.204596960643</v>
       </c>
       <c r="S2">
-        <v>0.4553155618213887</v>
+        <v>0.03618231591230665</v>
       </c>
       <c r="T2">
-        <v>0.4553155618213887</v>
+        <v>0.03618231591230665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.55160266666667</v>
+        <v>11.32416633333333</v>
       </c>
       <c r="H3">
-        <v>37.654808</v>
+        <v>33.972499</v>
       </c>
       <c r="I3">
-        <v>0.5004834597846365</v>
+        <v>0.7577017832003755</v>
       </c>
       <c r="J3">
-        <v>0.5004834597846365</v>
+        <v>0.7577017832003754</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.126117</v>
       </c>
       <c r="O3">
-        <v>0.09024853285398096</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.09024853285398096</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5276568245040001</v>
+        <v>0.476056628487</v>
       </c>
       <c r="R3">
-        <v>4.748911420536</v>
+        <v>4.284509656383</v>
       </c>
       <c r="S3">
-        <v>0.04516789796324783</v>
+        <v>0.7577017832003755</v>
       </c>
       <c r="T3">
-        <v>0.04516789796324783</v>
+        <v>0.7577017832003754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.32416633333333</v>
+        <v>3.080487333333333</v>
       </c>
       <c r="H4">
-        <v>33.972499</v>
+        <v>9.241461999999999</v>
       </c>
       <c r="I4">
-        <v>0.4515405798125461</v>
+        <v>0.2061159008873179</v>
       </c>
       <c r="J4">
-        <v>0.4515405798125461</v>
+        <v>0.2061159008873179</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4237746666666666</v>
+        <v>0.042039</v>
       </c>
       <c r="N4">
-        <v>1.271324</v>
+        <v>0.126117</v>
       </c>
       <c r="O4">
-        <v>0.9097514671460191</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9097514671460191</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>4.798894813186221</v>
+        <v>0.129500607006</v>
       </c>
       <c r="R4">
-        <v>43.19005331867599</v>
+        <v>1.165505463054</v>
       </c>
       <c r="S4">
-        <v>0.410789704960428</v>
+        <v>0.2061159008873179</v>
       </c>
       <c r="T4">
-        <v>0.410789704960428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>11.32416633333333</v>
-      </c>
-      <c r="H5">
-        <v>33.972499</v>
-      </c>
-      <c r="I5">
-        <v>0.4515405798125461</v>
-      </c>
-      <c r="J5">
-        <v>0.4515405798125461</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.042039</v>
-      </c>
-      <c r="N5">
-        <v>0.126117</v>
-      </c>
-      <c r="O5">
-        <v>0.09024853285398096</v>
-      </c>
-      <c r="P5">
-        <v>0.09024853285398096</v>
-      </c>
-      <c r="Q5">
-        <v>0.476056628487</v>
-      </c>
-      <c r="R5">
-        <v>4.284509656383</v>
-      </c>
-      <c r="S5">
-        <v>0.04075087485211818</v>
-      </c>
-      <c r="T5">
-        <v>0.04075087485211818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.203187</v>
-      </c>
-      <c r="H6">
-        <v>3.609561</v>
-      </c>
-      <c r="I6">
-        <v>0.04797596040281741</v>
-      </c>
-      <c r="J6">
-        <v>0.0479759604028174</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.4237746666666666</v>
-      </c>
-      <c r="N6">
-        <v>1.271324</v>
-      </c>
-      <c r="O6">
-        <v>0.9097514671460191</v>
-      </c>
-      <c r="P6">
-        <v>0.9097514671460191</v>
-      </c>
-      <c r="Q6">
-        <v>0.5098801698626666</v>
-      </c>
-      <c r="R6">
-        <v>4.588921528764</v>
-      </c>
-      <c r="S6">
-        <v>0.04364620036420246</v>
-      </c>
-      <c r="T6">
-        <v>0.04364620036420245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.203187</v>
-      </c>
-      <c r="H7">
-        <v>3.609561</v>
-      </c>
-      <c r="I7">
-        <v>0.04797596040281741</v>
-      </c>
-      <c r="J7">
-        <v>0.0479759604028174</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.042039</v>
-      </c>
-      <c r="N7">
-        <v>0.126117</v>
-      </c>
-      <c r="O7">
-        <v>0.09024853285398096</v>
-      </c>
-      <c r="P7">
-        <v>0.09024853285398096</v>
-      </c>
-      <c r="Q7">
-        <v>0.050580778293</v>
-      </c>
-      <c r="R7">
-        <v>0.455227004637</v>
-      </c>
-      <c r="S7">
-        <v>0.004329760038614957</v>
-      </c>
-      <c r="T7">
-        <v>0.004329760038614956</v>
+        <v>0.2061159008873179</v>
       </c>
     </row>
   </sheetData>
